--- a/sequenza lezioni BDA.xlsx
+++ b/sequenza lezioni BDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/my bda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFC0D1B-3754-C547-8F3F-6A4D1287E1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C09514-7B8C-CF41-8ABE-9E0D4B763D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Previsione</t>
   </si>
@@ -224,13 +224,19 @@
     <t>argomento2024-25</t>
   </si>
   <si>
-    <t>attenzione, insegna GC</t>
-  </si>
-  <si>
-    <t>attenzione, exe MF</t>
-  </si>
-  <si>
     <t>bayes rule (marginal, joint; fatto risolvere infected | positive;  rigged coin toss; monty hall)</t>
+  </si>
+  <si>
+    <t>beta-binomial (beta; con esercizio di tune prior )</t>
+  </si>
+  <si>
+    <t>beta-bin fino pag 45 (example of updating)</t>
+  </si>
+  <si>
+    <t>finita beta-bin; 3.9, 3.10, normal-normal fino calcolo lik function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> normal normal (senza 5.9 - 5.10; arrivato fino introdurre implementazione bidimensionale)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -308,8 +314,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +344,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,12 +376,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,9 +428,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -824,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,7 +961,7 @@
         <v>45554</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -964,6 +990,9 @@
         <f t="shared" ref="G8" si="2">G6+7</f>
         <v>45558</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1021,6 +1050,9 @@
         <f t="shared" ref="G10" si="4">G8+7</f>
         <v>45565</v>
       </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1048,6 +1080,9 @@
         <f t="shared" ref="G11" si="5">G9+7</f>
         <v>45568</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1075,6 +1110,9 @@
         <f t="shared" ref="G12" si="6">G10+7</f>
         <v>45572</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1132,6 +1170,9 @@
         <f t="shared" ref="G14" si="8">G12+7</f>
         <v>45579</v>
       </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1159,6 +1200,9 @@
         <f t="shared" si="9"/>
         <v>45582</v>
       </c>
+      <c r="H15" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1435,8 +1479,8 @@
         <f t="shared" si="9"/>
         <v>45617</v>
       </c>
-      <c r="H25" t="s">
-        <v>61</v>
+      <c r="H25" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,9 +1509,7 @@
         <f t="shared" si="9"/>
         <v>45621</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">

--- a/sequenza lezioni BDA.xlsx
+++ b/sequenza lezioni BDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/my bda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C09514-7B8C-CF41-8ABE-9E0D4B763D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD12207-7A89-A84E-8F78-7BEC81714A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Previsione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t xml:space="preserve"> normal normal (senza 5.9 - 5.10; arrivato fino introdurre implementazione bidimensionale)</t>
+  </si>
+  <si>
+    <t>ripresa MCMC, prob programming inclusa ROPE</t>
+  </si>
+  <si>
+    <t>Notebook normal-normal; assignment negli ultimi 20 min</t>
   </si>
 </sst>
 </file>
@@ -431,9 +437,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -851,7 +855,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E5" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1204,7 @@
         <f t="shared" si="9"/>
         <v>45582</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1230,6 +1234,9 @@
         <f t="shared" si="9"/>
         <v>45586</v>
       </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1286,6 +1293,9 @@
       <c r="G18" s="14">
         <f t="shared" si="9"/>
         <v>45593</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">

--- a/sequenza lezioni BDA.xlsx
+++ b/sequenza lezioni BDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/my bda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD12207-7A89-A84E-8F78-7BEC81714A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8DEC3F-AA89-814D-990F-4182263A3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     <t>ripresa MCMC, prob programming inclusa ROPE</t>
   </si>
   <si>
-    <t>Notebook normal-normal; assignment negli ultimi 20 min</t>
+    <t>Notebook normal-normal; assignment negli ultimi 20 min (chiedere se data ok)</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E5" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sequenza lezioni BDA.xlsx
+++ b/sequenza lezioni BDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgio/switchdrive/teaching/BayesianProg/my bda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8DEC3F-AA89-814D-990F-4182263A3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63333EC-35A2-F54A-90CC-8B626BFF4AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Previsione</t>
   </si>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1324,6 +1324,9 @@
         <f t="shared" si="9"/>
         <v>45596</v>
       </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1350,6 +1353,9 @@
       <c r="G20" s="14">
         <f t="shared" si="9"/>
         <v>45600</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
